--- a/ozone/multistate/ozone_VTZP_MS_2_SHAP.xlsx
+++ b/ozone/multistate/ozone_VTZP_MS_2_SHAP.xlsx
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$F_{q}^{\text{SCF}}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0004976975594316762</v>
+        <v>0.0006441775661011089</v>
       </c>
     </row>
     <row r="3">
@@ -468,59 +468,59 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0004872956105462398</v>
+        <v>0.0004293867793588836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$type_3$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0003968006739625815</v>
+        <v>0.000409746624354415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0003925559743647076</v>
+        <v>0.0003693237494992304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.000390806643148849</v>
+        <v>0.0003086704464635185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>$F_{q}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0003732828294814145</v>
+        <v>0.0002820772538887145</v>
       </c>
     </row>
     <row r="8">
@@ -533,33 +533,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003383622038513967</v>
+        <v>0.0002763515184638632</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>h$_{q}$</t>
+          <t>(h$_{r}$)$_{3}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003230033275700374</v>
+        <v>0.0002635162698981279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002829388677488773</v>
+        <v>0.0002409469844030517</v>
       </c>
     </row>
     <row r="11">
@@ -572,59 +572,59 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002799816105416185</v>
+        <v>0.0002278949407495173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002320965715410024</v>
+        <v>0.0002191380642747271</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002177674285463687</v>
+        <v>0.0002104182009835642</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$type_1$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002049304955259489</v>
+        <v>0.0002088382576736755</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>h$_{q}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001912804327143926</v>
+        <v>0.000191435060482582</v>
       </c>
     </row>
     <row r="16">
@@ -637,98 +637,98 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001630649331435031</v>
+        <v>0.0001783294701928163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.000160297437886642</v>
+        <v>0.00017387168759137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{3}$</t>
+          <t>$type_1$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001402588904399592</v>
+        <v>0.0001679495906309814</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000133448433476517</v>
+        <v>0.0001590982729649331</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$type_0$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001217980692233788</v>
+        <v>0.0001443767008252912</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001153602973312401</v>
+        <v>0.0001406468512713774</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001085781028359019</v>
+        <v>0.0001400806576302712</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.856655321222809e-05</v>
+        <v>0.0001359454232215735</v>
       </c>
     </row>
     <row r="24">
@@ -741,254 +741,254 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.324368901325326e-05</v>
+        <v>0.0001165616757725491</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$type_3$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.016390853158018e-05</v>
+        <v>0.0001073034207167296</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>(h$_{rs}$)$_{3}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.825810850404237e-05</v>
+        <v>9.846992630266127e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{2}$</t>
+          <t>(h$_{r}$)$_{2}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.748436732711682e-05</v>
+        <v>8.983542642799293e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.067281782523703e-05</v>
+        <v>8.973751082449259e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{3}$</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.351233653255147e-05</v>
+        <v>8.87871505357376e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.345090846751035e-05</v>
+        <v>7.870977437224461e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.16664224518877e-05</v>
+        <v>7.072908415999217e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.804449698374708e-05</v>
+        <v>6.961073045415957e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.610974066681981e-05</v>
+        <v>6.842126535449778e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.563073607929579e-05</v>
+        <v>6.812940532019556e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6.355383862041188e-05</v>
+        <v>6.550003401521943e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>(h$_{pr}$)$_{1}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.203810210981297e-05</v>
+        <v>6.442954286075273e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.173794135620059e-05</v>
+        <v>6.41320874827079e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.054507117677312e-05</v>
+        <v>5.695522430673757e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.807949160411338e-05</v>
+        <v>5.640088953775609e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.804732800094498e-05</v>
+        <v>5.613411669372816e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{0}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.736019744642331e-05</v>
+        <v>5.07539435183042e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{3}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.659631620138573e-05</v>
+        <v>4.869083370119305e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$type_0$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.57620378751522e-05</v>
+        <v>4.162184927116245e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1001,579 +1001,579 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5.074382704777132e-05</v>
+        <v>3.928816263969414e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4.889130726846801e-05</v>
+        <v>3.85953684454223e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{1}$</t>
+          <t>(h$_{p}$)$_{2}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.883845323995488e-05</v>
+        <v>3.840982572996211e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4.805616025168461e-05</v>
+        <v>3.71307003833815e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$\langle ss \vert ss \rangle$</t>
+          <t>(h$_{rs}$)$_{1}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.709734387991155e-05</v>
+        <v>3.636479245169934e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.696935697690305e-05</v>
+        <v>3.396154873225539e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>(h$_{p}$)$_{1}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.691716147902035e-05</v>
+        <v>3.159544439060346e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>(h$_{p}$)$_{0}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.556648555871677e-05</v>
+        <v>3.009795803566974e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4.530677417143884e-05</v>
+        <v>2.992696716913715e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4.51140530605595e-05</v>
+        <v>2.961281139698402e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4.482068199004061e-05</v>
+        <v>2.801485595920036e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>(h$_{rs}$)$_{2}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4.075110572333145e-05</v>
+        <v>2.741502173164939e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.868044456682184e-05</v>
+        <v>2.733780810184675e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{1}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3.859427782117333e-05</v>
+        <v>2.655239235551999e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{0}$</t>
+          <t>(h$_{pq}$)$_{2}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3.77842423413582e-05</v>
+        <v>2.493429075343483e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.706692083277945e-05</v>
+        <v>2.441171878735123e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{2}$</t>
+          <t>(h$_{pr}$)$_{0}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3.64941658909815e-05</v>
+        <v>2.400273950601247e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{2}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3.537531121589865e-05</v>
+        <v>2.35759027390644e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3.431776136225826e-05</v>
+        <v>2.315590488808062e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3.36079348876456e-05</v>
+        <v>2.170328319539432e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3.148371078422523e-05</v>
+        <v>2.095840343471078e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.767121013943449e-05</v>
+        <v>2.064126167747908e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2.686224419114341e-05</v>
+        <v>2.010075717428073e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2.678176629346995e-05</v>
+        <v>1.8350883321598e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.481982702118585e-05</v>
+        <v>1.810967814796203e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.406167925322578e-05</v>
+        <v>1.764225459120816e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.996368901546437e-05</v>
+        <v>1.722490289514071e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.935999629261802e-05</v>
+        <v>1.633081714893115e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>(h$_{pq}$)$_{1}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.814092364130063e-05</v>
+        <v>1.609856397967074e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.623630130245824e-05</v>
+        <v>1.595812149574323e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.337959226751913e-05</v>
+        <v>1.525770462375325e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.319734577137414e-05</v>
+        <v>1.501744501758283e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.293314842500189e-05</v>
+        <v>1.456438354857843e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.234951226412599e-05</v>
+        <v>1.39574213874011e-05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.179655488262958e-05</v>
+        <v>1.381171100530756e-05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.000757542620441e-05</v>
+        <v>1.351672991359039e-05</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9.345315293062088e-06</v>
+        <v>1.33649836709753e-05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7.23873145123063e-06</v>
+        <v>1.201405318038857e-05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6.312280990087711e-06</v>
+        <v>1.197785447411894e-05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.890541322548034e-06</v>
+        <v>8.791131767280573e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.622369959003331e-06</v>
+        <v>7.049208141892613e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{0}$</t>
+          <t>(h$_{rs}$)$_{0}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4.062271173972635e-06</v>
+        <v>6.882158873010635e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3.067961833756767e-06</v>
+        <v>5.560798685204711e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.611775090037412e-06</v>
+        <v>6.368690902383505e-07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.269146355448451e-06</v>
+        <v>6.338010622840767e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1586,176 +1586,176 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.162417982670441e-06</v>
+        <v>3.304210107126468e-07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.053753135574355e-08</v>
+        <v>8.592756180017643e-08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4.008651361050054e-08</v>
+        <v>8.526920373128768e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4.005302203258784e-08</v>
+        <v>7.018129429982211e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.978758346578879e-08</v>
+        <v>6.831764798161287e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3.898208888459102e-08</v>
+        <v>6.523638734968402e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3.873171400519918e-08</v>
+        <v>6.266994454948524e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3.83132037625571e-08</v>
+        <v>6.165994601936364e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3.702284101326635e-08</v>
+        <v>5.842275061838839e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3.50418115067698e-08</v>
+        <v>5.754927891168201e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3.294566820311339e-08</v>
+        <v>5.182926642846993e-08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2.903364717126521e-08</v>
+        <v>4.47045129914548e-08</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$\omega_{q}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2.282935156303606e-08</v>
+        <v>3.665290417103818e-08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.784733405713513e-08</v>
+        <v>2.451425725083722e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.449681992016198e-08</v>
+        <v>1.885277506987494e-08</v>
       </c>
     </row>
   </sheetData>
